--- a/mathTransformed/HMPSTT_(2019-08-10)_32_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-08-10)_32_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S SonanaAurad</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G(Ex-ML) P U College</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Govt Girls High School WadgaonAurad</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -562,7 +582,8 @@
           <t>C A STEPHEN</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Basel Mission Comp Junior Collee(H S) Dharwad</t>
         </is>
@@ -591,6 +612,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S DashavaraChannapatna</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -618,6 +644,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S MokaliArakalgud</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -645,6 +676,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Kondaji Basappa H S Betur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -672,6 +708,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G G H S Channageri</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -700,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Bhadravathi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Shivamoga</t>
         </is>
       </c>
@@ -727,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>S G H S GiriyapurKadur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Chikamagalur</t>
         </is>
       </c>
@@ -754,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Vijaya High School Santhebennurchannagiri</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -781,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>M M G H S M CampBirur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Chikkamagalur</t>
         </is>
       </c>
@@ -808,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S HonganurChannapatna</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -835,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Anand High School SanthpurAurad(B)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -860,7 +931,8 @@
           <t>MANJUNATH G V</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Shri M V Pattan Com J</t>
         </is>
@@ -878,6 +950,11 @@
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>College RabakaviJamkhandi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>
@@ -906,6 +983,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Sree Jagathguru Renukacharya High School Uddeboranahalli</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Chikmagalur</t>
         </is>
       </c>
@@ -933,6 +1015,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G B J C Arkalgud</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -960,6 +1047,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>S V S H S RudrapatnaArakalgud</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -987,6 +1079,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>K E B H S Malmadeli</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1014,6 +1111,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Al Ameen Alhadad high SchoolChannapatna</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1041,6 +1143,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>S J C Channapatna</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Ramanagar</t>
         </is>
       </c>
@@ -1068,6 +1175,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S HulikalArakalgud</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1095,6 +1207,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>S S High School NivagundaBadami</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Bagalakot</t>
         </is>
       </c>
@@ -1122,6 +1239,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>S P R H S RamanathapuraArakalgud</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1149,6 +1271,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>S A P U C (H S ) HalasangiChadchan</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1176,6 +1303,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S Thalihalla</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Chikkamagalur</t>
         </is>
       </c>
@@ -1203,6 +1335,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>S S M S Chadchan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1230,6 +1367,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S AnkalagaAfzalpur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1257,6 +1399,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G J C DoddamaggeArakalgud</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1282,7 +1429,8 @@
           <t>UZMA NAZNEEN</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>G P U C Ripponpete</t>
         </is>
@@ -1300,6 +1448,11 @@
         </is>
       </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>Hosanagar</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Shivamoga</t>
         </is>
@@ -1328,6 +1481,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G P U C Hosanagara</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Shivamoga</t>
         </is>
       </c>
@@ -1354,6 +1512,11 @@
         </is>
       </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>Bhadra High SchoolBhadravathi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Shivamoga</t>
         </is>

--- a/mathTransformed/HMPSTT_(2019-08-10)_32_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-08-10)_32_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,6 @@
           <t>C A STEPHEN</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>Basel Mission Comp Junior Collee(H S) Dharwad</t>
@@ -681,7 +680,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -713,7 +712,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -810,7 +809,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -842,7 +841,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chikkamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -931,7 +930,6 @@
           <t>MANJUNATH G V</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>Shri M V Pattan Com J</t>
@@ -1148,7 +1146,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ramanagar</t>
+          <t>Ramanagara</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1210,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bagalakot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1274,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1306,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chikkamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1338,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1370,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1427,6 @@
           <t>UZMA NAZNEEN</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>G P U C Ripponpete</t>

--- a/mathTransformed/HMPSTT_(2019-08-10)_32_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-08-10)_32_4.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Basel Mission Comp Junior Collee(H S) Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Shivamoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chikamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>G P U C Ripponpete</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Shivamoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Shivamoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Shivamoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
